--- a/report excel.xlsx
+++ b/report excel.xlsx
@@ -6,13 +6,25 @@
   </bookViews>
   <sheets>
     <sheet name="สารบัญ" sheetId="1" r:id="rId1"/>
-    <sheet name="ธนกร จริยเพียรพันธุ์" sheetId="2" r:id="rId2"/>
+    <sheet name="จุฬาลักษณ์ วันอ่อน" sheetId="2" r:id="rId2"/>
+    <sheet name="ชนากานต์ ถิรกิจไพโรจน์" sheetId="3" r:id="rId3"/>
+    <sheet name="กีรติยา พงษ์พานิช" sheetId="4" r:id="rId4"/>
+    <sheet name="ธนกร จริยเพียรพันธุ์" sheetId="5" r:id="rId5"/>
+    <sheet name="ธนพนธ์ อุตมานิติเจริญ" sheetId="6" r:id="rId6"/>
+    <sheet name="ธรณีลักษมี ปานสวัสดิ์" sheetId="7" r:id="rId7"/>
+    <sheet name="พุฒิธาดา โพธิไชยา" sheetId="8" r:id="rId8"/>
+    <sheet name="มนัส จิตพิริยะอุดม" sheetId="9" r:id="rId9"/>
+    <sheet name="มยุรมาศ อุ่นศรี" sheetId="10" r:id="rId10"/>
+    <sheet name="วราภรณ์ อาจศิลา" sheetId="11" r:id="rId11"/>
+    <sheet name="วารุณี ธนสถาพร" sheetId="12" r:id="rId12"/>
+    <sheet name="ศิญาภัสร์ โพธิเศวตวัชร์" sheetId="13" r:id="rId13"/>
+    <sheet name="สิริรัตน์ สยามไชย" sheetId="14" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>ชื่อ-นามสกุล</t>
   </si>
@@ -77,76 +89,268 @@
     <t>วันที่อนุมัติ</t>
   </si>
   <si>
+    <t>จุฬาลักษณ์ วันอ่อน</t>
+  </si>
+  <si>
+    <t>08/03/2563</t>
+  </si>
+  <si>
+    <t>07/03/2563</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>ลาป่วย</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>อนุมัติ</t>
+  </si>
+  <si>
+    <t>กีรติยา พงษ์พานิช</t>
+  </si>
+  <si>
+    <t>ชนากานต์ ถิรกิจไพโรจน์</t>
+  </si>
+  <si>
+    <t>03/02/2563</t>
+  </si>
+  <si>
+    <t>22/02/2563</t>
+  </si>
+  <si>
+    <t>ลาพักร้อน</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>รออนุมัติ</t>
+  </si>
+  <si>
+    <t>01/01/2513</t>
+  </si>
+  <si>
+    <t>28/02/2563</t>
+  </si>
+  <si>
+    <t>27/02/2563</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>สมเกียรติ อุ่นกุศลภักดี</t>
+  </si>
+  <si>
+    <t>04/03/2563</t>
+  </si>
+  <si>
+    <t>ลาสลับวันหยุด</t>
+  </si>
+  <si>
+    <t>06/03/2563</t>
+  </si>
+  <si>
     <t>ธนกร จริยเพียรพันธุ์</t>
   </si>
   <si>
-    <t>06/01/2563</t>
+    <t>25/02/2563</t>
+  </si>
+  <si>
+    <t>24/02/2563</t>
   </si>
   <si>
     <t>08:00</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>17:00</t>
   </si>
   <si>
-    <t>ลาป่วย</t>
-  </si>
-  <si>
-    <t>เป็นไข้</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>อนุมัติ</t>
+    <t>21/02/2563</t>
   </si>
   <si>
     <t>ธนิต เนตรโพธิ์แก้ว</t>
   </si>
   <si>
-    <t>08/01/2563</t>
-  </si>
-  <si>
-    <t>14/01/2563</t>
-  </si>
-  <si>
-    <t>คออักเสบ</t>
+    <t>ธนพนธ์ อุตมานิติเจริญ</t>
+  </si>
+  <si>
+    <t>04/02/2563</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>ลากิจ</t>
+  </si>
+  <si>
+    <t>เหตุผลอื่นๆ โปรดระบุ...</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>18/02/2563</t>
+  </si>
+  <si>
+    <t>03/03/2563</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>04:30</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>ธรณีลักษมี ปานสวัสดิ์</t>
+  </si>
+  <si>
+    <t>วัฒนา ศักขี</t>
+  </si>
+  <si>
+    <t>09/03/2563</t>
+  </si>
+  <si>
+    <t>ติดต่อราชการ</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>พุฒิธาดา โพธิไชยา</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>มณฑา ทองส่งโสม</t>
+  </si>
+  <si>
+    <t>02/03/2563</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>มนัส จิตพิริยะอุดม</t>
+  </si>
+  <si>
+    <t>บุตรธิดาเจ็บป่วย</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>10/03/2563</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>27/02/2563</t>
-  </si>
-  <si>
-    <t>04/02/2563</t>
-  </si>
-  <si>
-    <t>03/02/2563</t>
-  </si>
-  <si>
-    <t>ลาสลับวันหยุด</t>
-  </si>
-  <si>
-    <t>31/01/2563</t>
-  </si>
-  <si>
-    <t>25/02/2563</t>
-  </si>
-  <si>
-    <t>24/02/2563</t>
-  </si>
-  <si>
-    <t>21/02/2563</t>
+    <t>มยุรมาศ อุ่นศรี</t>
+  </si>
+  <si>
+    <t>20/02/2563</t>
+  </si>
+  <si>
+    <t>26/02/2563</t>
+  </si>
+  <si>
+    <t>01/02/2563</t>
+  </si>
+  <si>
+    <t>07/02/2563</t>
+  </si>
+  <si>
+    <t>15/02/2563</t>
+  </si>
+  <si>
+    <t>19/03/2563</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>วราภรณ์ อาจศิลา</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>ญานิษฐ์ เขมภิญโญธเนษฐ์</t>
+  </si>
+  <si>
+    <t>วารุณี ธนสถาพร</t>
+  </si>
+  <si>
+    <t>13/03/2563</t>
+  </si>
+  <si>
+    <t>14/03/2563</t>
+  </si>
+  <si>
+    <t>16/03/2563</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12/03/2563</t>
+  </si>
+  <si>
+    <t>15/03/2563</t>
+  </si>
+  <si>
+    <t>ศิญาภัสร์ โพธิเศวตวัชร์</t>
+  </si>
+  <si>
+    <t>สิริรัตน์ สยามไชย</t>
+  </si>
+  <si>
+    <t>05/03/2563</t>
+  </si>
+  <si>
+    <t>ตาอักเสบบวม</t>
+  </si>
+  <si>
+    <t>ลาป่ายตามแพทย์เห็นสมควร ห้ามใช้สายตา</t>
   </si>
   <si>
     <t>ลำดับ</t>
@@ -228,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -236,10 +440,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -247,21 +451,117 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'จุฬาลักษณ์ วันอ่อน'!A1)),"จุฬาลักษณ์ วันอ่อน")</f>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'ชนากานต์ ถิรกิจไพโรจน์'!A1)),"ชนากานต์ ถิรกิจไพโรจน์")</f>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'กีรติยา พงษ์พานิช'!A1)),"กีรติยา พงษ์พานิช")</f>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
         <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'ธนกร จริยเพียรพันธุ์'!A1)),"ธนกร จริยเพียรพันธุ์")</f>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'ธนพนธ์ อุตมานิติเจริญ'!A1)),"ธนพนธ์ อุตมานิติเจริญ")</f>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'ธรณีลักษมี ปานสวัสดิ์'!A1)),"ธรณีลักษมี ปานสวัสดิ์")</f>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'พุฒิธาดา โพธิไชยา'!A1)),"พุฒิธาดา โพธิไชยา")</f>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'มนัส จิตพิริยะอุดม'!A1)),"มนัส จิตพิริยะอุดม")</f>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'มยุรมาศ อุ่นศรี'!A1)),"มยุรมาศ อุ่นศรี")</f>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'วราภรณ์ อาจศิลา'!A1)),"วราภรณ์ อาจศิลา")</f>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'วารุณี ธนสถาพร'!A1)),"วารุณี ธนสถาพร")</f>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'ศิญาภัสร์ โพธิเศวตวัชร์'!A1)),"ศิญาภัสร์ โพธิเศวตวัชร์")</f>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สิริรัตน์ สยามไชย'!A1)),"สิริรัตน์ สยามไชย")</f>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -334,58 +634,1693 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B10)),"ไปยังหน้าสารบัญ")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B11)),"ไปยังหน้าสารบัญ")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U9"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B12)),"ไปยังหน้าสารบัญ")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B13)),"ไปยังหน้าสารบัญ")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B14)),"ไปยังหน้าสารบัญ")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>31</v>
@@ -394,230 +2329,1752 @@
         <v>32</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B2)),"ไปยังหน้าสารบัญ")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B3)),"ไปยังหน้าสารบัญ")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B4)),"ไปยังหน้าสารบัญ")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B5)),"ไปยังหน้าสารบัญ")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B6)),"ไปยังหน้าสารบัญ")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B7)),"ไปยังหน้าสารบัญ")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B8)),"ไปยังหน้าสารบัญ")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4">
-        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B2)),"ไปยังหน้าสารบัญ")</f>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4">
+        <f>=HYPERLINK(CONCATENATE("#",CELL("Address",'สารบัญ'!B9)),"ไปยังหน้าสารบัญ")</f>
       </c>
     </row>
   </sheetData>
